--- a/Files/TestData.xlsx
+++ b/Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="7215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="CommonData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="187">
   <si>
     <t>TC_ID</t>
   </si>
@@ -582,6 +582,9 @@
   </si>
   <si>
     <t>putHere</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -756,14 +759,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1081,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,18 +1117,17 @@
         <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1234,6 +1242,11 @@
       <c r="C19" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Chrome,Mozila,IE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1762,765 +1775,759 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="16.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="J1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="24">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="24">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="25">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="25">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
+      <c r="C10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="F14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="G14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="B16" s="20">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="20">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="20">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="B20" s="20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="B21" s="20">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="B22" s="20">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="B23" s="20">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="B24" s="20">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="B25" s="20">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="B26" s="20">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="B27" s="20">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="B28" s="20">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="B29" s="20">
+        <v>1</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2536,7 +2543,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4:J5"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Files/TestData.xlsx
+++ b/Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="7215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CommonData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="176">
   <si>
     <t>TC_ID</t>
   </si>
@@ -89,24 +89,6 @@
     <t>Mod_02_TC_02</t>
   </si>
   <si>
-    <t>Mod_02_TC_03</t>
-  </si>
-  <si>
-    <t>Mod_02_TC_04</t>
-  </si>
-  <si>
-    <t>Mod_02_TC_05</t>
-  </si>
-  <si>
-    <t>Mod_02_TC_06</t>
-  </si>
-  <si>
-    <t>Mod_02_TC_07</t>
-  </si>
-  <si>
-    <t>Mod_02_TC_08</t>
-  </si>
-  <si>
     <t>Mod_02_TC_09</t>
   </si>
   <si>
@@ -143,9 +125,6 @@
     <t>App_URL</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>https://www.google.co.in/</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>Books</t>
   </si>
   <si>
-    <t>Movies</t>
-  </si>
-  <si>
     <t>Newsstand</t>
   </si>
   <si>
@@ -224,12 +200,6 @@
     <t>CD9</t>
   </si>
   <si>
-    <t>testData</t>
-  </si>
-  <si>
-    <t>mozila</t>
-  </si>
-  <si>
     <t>AppName</t>
   </si>
   <si>
@@ -569,29 +539,26 @@
     <t>Mod_DD_TC_05</t>
   </si>
   <si>
-    <t>Apps</t>
-  </si>
-  <si>
-    <t>My Play activity</t>
-  </si>
-  <si>
-    <t>My wishlist</t>
-  </si>
-  <si>
-    <t>Redeem</t>
-  </si>
-  <si>
     <t>putHere</t>
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>#CD3</t>
+  </si>
+  <si>
+    <t>Mozila</t>
+  </si>
+  <si>
+    <t>IE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,8 +596,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,12 +668,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -709,8 +678,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -733,18 +720,432 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -760,19 +1161,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1090,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1102,148 +1586,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>38</v>
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Chrome,Mozila,IE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1253,49 +1742,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="48"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1304,288 +1798,282 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>G2</f>
-        <v>mozila</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="74">
+        <v>2</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="79">
+        <v>2</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="88">
+        <v>3</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="33">
+        <v>3</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="93">
+        <v>3</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="83">
+        <v>1</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1593,941 +2081,1207 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="99">
+        <v>1</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="107">
+        <v>1</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="110" t="s">
+        <v>5</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="110" t="s">
+        <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="110" t="s">
+        <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="112">
+        <v>2</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="83">
+        <v>1</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="16.85546875" style="22"/>
+    <col min="11" max="16384" width="16.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="58">
+        <v>1</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="67">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-    </row>
-    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="B5" s="74">
+        <v>2</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="23">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B7" s="79">
+        <v>2</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B8" s="88">
+        <v>3</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B9" s="33">
+        <v>3</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="93">
+        <v>3</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="58">
+        <v>1</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="67">
+        <v>1</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="74">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="C14" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="C15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="79">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="25">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="27">
-        <v>2</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-    </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="C16" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="B17" s="88">
+        <v>3</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="B18" s="33">
+        <v>3</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="B19" s="93">
+        <v>3</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="20">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="20">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="20">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="20">
-        <v>1</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="20">
-        <v>1</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="B28" s="19">
+        <v>1</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="20">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="20">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="20">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="20">
-        <v>1</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="20">
-        <v>1</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2537,13 +3291,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,31 +3318,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2602,27 +3356,27 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2632,27 +3386,27 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2662,21 +3416,21 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2686,21 +3440,21 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -2710,21 +3464,21 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2734,21 +3488,21 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2758,19 +3512,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2780,19 +3534,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2802,19 +3556,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2824,31 +3578,31 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2858,19 +3612,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2880,19 +3634,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2902,19 +3656,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2924,19 +3678,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2946,19 +3700,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2968,19 +3722,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2990,13 +3744,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3012,13 +3766,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3031,6 +3785,28 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3059,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="K1" s="3">
         <v>0</v>
@@ -3099,27 +3875,27 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="3">
@@ -3131,27 +3907,27 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="3">
@@ -3162,28 +3938,28 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>99</v>
+      <c r="A4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="3">
@@ -3194,28 +3970,28 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>100</v>
+      <c r="A5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3">
@@ -3226,28 +4002,28 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>108</v>
+      <c r="A6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="3">
@@ -3258,28 +4034,28 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>109</v>
+      <c r="A7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="3">
@@ -3290,28 +4066,28 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>99</v>
+      <c r="C8" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3">
@@ -3322,28 +4098,28 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>100</v>
+      <c r="C9" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3">
@@ -3354,28 +4130,28 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>108</v>
+      <c r="C10" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3">
@@ -3386,28 +4162,28 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>109</v>
+      <c r="C11" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3">
@@ -3418,28 +4194,28 @@
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>99</v>
+      <c r="C12" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3">
@@ -3450,28 +4226,28 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>100</v>
+      <c r="C13" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="3">
@@ -3482,28 +4258,28 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>108</v>
+      <c r="C14" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="3">
@@ -3514,28 +4290,28 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="A15" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>109</v>
+      <c r="C15" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3">
@@ -3546,28 +4322,28 @@
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>99</v>
+      <c r="A16" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="3">
@@ -3578,28 +4354,28 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>100</v>
+      <c r="A17" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="3">
@@ -3610,28 +4386,28 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>108</v>
+      <c r="A18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="3">
@@ -3642,28 +4418,28 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>109</v>
+      <c r="A19" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H19" s="7"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="3">
@@ -3674,28 +4450,28 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="11">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>114</v>
+      <c r="A20" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="3">
@@ -3706,28 +4482,28 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="A21" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="12">
         <v>2</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>99</v>
+      <c r="C21" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="3">
@@ -3738,28 +4514,28 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="13">
+      <c r="A22" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="12">
         <v>2</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>100</v>
+      <c r="C22" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="3">
@@ -3770,28 +4546,28 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="A23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="12">
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>108</v>
+      <c r="C23" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="3">
@@ -3802,28 +4578,28 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="13">
+      <c r="A24" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="12">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>109</v>
+      <c r="C24" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H24" s="7"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="3">
@@ -3834,28 +4610,28 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="A25" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="12">
         <v>2</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>114</v>
+      <c r="C25" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="H25" s="7"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="3">
@@ -3866,28 +4642,28 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="16">
+      <c r="A26" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>99</v>
+      <c r="C26" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="3">
@@ -3898,28 +4674,28 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="16">
+      <c r="A27" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="15">
         <v>3</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>100</v>
+      <c r="C27" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="H27" s="7"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="3">
@@ -3930,28 +4706,28 @@
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="16">
+      <c r="A28" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="15">
         <v>3</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>108</v>
+      <c r="C28" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="H28" s="7"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="3">
@@ -3962,28 +4738,28 @@
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="16">
+      <c r="A29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="15">
         <v>3</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>109</v>
+      <c r="C29" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="H29" s="7"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="3">
@@ -3994,28 +4770,28 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="16">
+      <c r="A30" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="15">
         <v>3</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>114</v>
+      <c r="C30" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="H30" s="7"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="3">
@@ -4026,28 +4802,28 @@
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="13">
+      <c r="A31" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="12">
         <v>4</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>99</v>
+      <c r="C31" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="H31" s="7"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="3">
@@ -4058,28 +4834,28 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="13">
+      <c r="A32" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="12">
         <v>4</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>100</v>
+      <c r="C32" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="H32" s="7"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="3">
@@ -4090,28 +4866,28 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="13">
+      <c r="A33" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="12">
         <v>4</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>108</v>
+      <c r="C33" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3">
@@ -4122,28 +4898,28 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="A34" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="12">
         <v>4</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>109</v>
+      <c r="C34" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H34" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="H34" s="7"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="3">
@@ -4154,28 +4930,28 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="13">
+      <c r="A35" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="12">
         <v>4</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>114</v>
+      <c r="C35" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="H35" s="7"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="3">
@@ -4186,28 +4962,28 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>99</v>
+      <c r="A36" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="3">
@@ -4218,28 +4994,28 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" s="11">
-        <v>1</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>100</v>
+      <c r="A37" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="3">
@@ -4250,28 +5026,28 @@
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="11">
-        <v>1</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>108</v>
+      <c r="A38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H38" s="7"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="3">
@@ -4282,28 +5058,28 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="11">
-        <v>1</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>109</v>
+      <c r="A39" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H39" s="7"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="3">
@@ -4314,28 +5090,28 @@
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="11">
-        <v>1</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>114</v>
+      <c r="A40" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="H40" s="7"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="3">
@@ -4346,28 +5122,28 @@
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="13">
+      <c r="A41" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="12">
         <v>2</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>99</v>
+      <c r="C41" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="H41" s="7"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="3">
@@ -4378,28 +5154,28 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="13">
+      <c r="A42" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="12">
         <v>2</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>100</v>
+      <c r="C42" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H42" s="7"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="3">
@@ -4410,28 +5186,28 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" s="13">
+      <c r="A43" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="12">
         <v>2</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>108</v>
+      <c r="C43" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="H43" s="7"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="3">
@@ -4442,28 +5218,28 @@
       <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="13">
+      <c r="A44" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="12">
         <v>2</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>109</v>
+      <c r="C44" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H44" s="7"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="3">
@@ -4474,28 +5250,28 @@
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="13">
+      <c r="A45" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="12">
         <v>2</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>114</v>
+      <c r="C45" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="H45" s="7"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="3">
@@ -4506,28 +5282,28 @@
       <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46" s="16">
+      <c r="A46" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="15">
         <v>3</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>99</v>
+      <c r="C46" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="H46" s="7"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="3">
@@ -4538,28 +5314,28 @@
       <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="16">
+      <c r="A47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="15">
         <v>3</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>100</v>
+      <c r="C47" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="H47" s="7"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="3">
@@ -4570,28 +5346,28 @@
       <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="16">
+      <c r="A48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="15">
         <v>3</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>108</v>
+      <c r="C48" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="H48" s="7"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="3">
@@ -4602,28 +5378,28 @@
       <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="16">
+      <c r="A49" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="15">
         <v>3</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>109</v>
+      <c r="C49" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H49" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="H49" s="7"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="3">
@@ -4634,28 +5410,28 @@
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="16">
+      <c r="A50" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="15">
         <v>3</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>114</v>
+      <c r="C50" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H50" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="H50" s="7"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="3">
@@ -4666,28 +5442,28 @@
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="13">
+      <c r="A51" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="12">
         <v>4</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>99</v>
+      <c r="C51" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="H51" s="7"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="3">
@@ -4698,28 +5474,28 @@
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="13">
+      <c r="A52" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="12">
         <v>4</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>100</v>
+      <c r="C52" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H52" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="H52" s="7"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="3">
@@ -4730,28 +5506,28 @@
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="13">
+      <c r="A53" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="12">
         <v>4</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>108</v>
+      <c r="C53" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="3">
@@ -4762,28 +5538,28 @@
       <c r="N53" s="4"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="13">
+      <c r="A54" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="12">
         <v>4</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>109</v>
+      <c r="C54" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H54" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="H54" s="7"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="3">
@@ -4794,28 +5570,28 @@
       <c r="N54" s="4"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="13">
+      <c r="A55" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="12">
         <v>4</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>114</v>
+      <c r="C55" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="H55" s="7"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="3">
@@ -4826,28 +5602,28 @@
       <c r="N55" s="4"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="11">
-        <v>1</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>99</v>
+      <c r="A56" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H56" s="7"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="3">
@@ -4858,28 +5634,28 @@
       <c r="N56" s="4"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" s="11">
-        <v>1</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>100</v>
+      <c r="A57" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="10">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="3">
@@ -4890,28 +5666,28 @@
       <c r="N57" s="4"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="11">
-        <v>1</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>108</v>
+      <c r="A58" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="10">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H58" s="7"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="3">
@@ -4922,28 +5698,28 @@
       <c r="N58" s="4"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="11">
-        <v>1</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>109</v>
+      <c r="A59" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H59" s="7"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="3">
@@ -4954,28 +5730,28 @@
       <c r="N59" s="4"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="11">
-        <v>1</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>114</v>
+      <c r="A60" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H60" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="H60" s="7"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="3">
@@ -4986,28 +5762,28 @@
       <c r="N60" s="4"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="13">
+      <c r="A61" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="12">
         <v>2</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>99</v>
+      <c r="C61" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="H61" s="7"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="3">
@@ -5018,28 +5794,28 @@
       <c r="N61" s="4"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="13">
+      <c r="A62" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="12">
         <v>2</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>100</v>
+      <c r="C62" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H62" s="7"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="3">
@@ -5050,28 +5826,28 @@
       <c r="N62" s="4"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="13">
+      <c r="A63" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="12">
         <v>2</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>108</v>
+      <c r="C63" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="H63" s="7"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="3">
@@ -5082,28 +5858,28 @@
       <c r="N63" s="4"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="13">
+      <c r="A64" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="12">
         <v>2</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>109</v>
+      <c r="C64" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H64" s="7"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="3">
@@ -5114,28 +5890,28 @@
       <c r="N64" s="4"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="13">
+      <c r="A65" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="12">
         <v>2</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>114</v>
+      <c r="C65" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H65" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="H65" s="7"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="3">
@@ -5146,28 +5922,28 @@
       <c r="N65" s="4"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="16">
+      <c r="A66" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="15">
         <v>3</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>99</v>
+      <c r="C66" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H66" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="H66" s="7"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="3">
@@ -5178,28 +5954,28 @@
       <c r="N66" s="4"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="16">
+      <c r="A67" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="15">
         <v>3</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>100</v>
+      <c r="C67" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H67" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="H67" s="7"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="3">
@@ -5210,28 +5986,28 @@
       <c r="N67" s="4"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" s="16">
+      <c r="A68" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="15">
         <v>3</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>108</v>
+      <c r="C68" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="H68" s="7"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="3">
@@ -5242,28 +6018,28 @@
       <c r="N68" s="4"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="16">
+      <c r="A69" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="15">
         <v>3</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>109</v>
+      <c r="C69" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H69" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="H69" s="7"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="3">
@@ -5274,28 +6050,28 @@
       <c r="N69" s="4"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="16">
+      <c r="A70" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="15">
         <v>3</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>114</v>
+      <c r="C70" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H70" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="H70" s="7"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="3">
@@ -5306,28 +6082,28 @@
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" s="13">
+      <c r="A71" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="12">
         <v>4</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>99</v>
+      <c r="C71" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H71" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="H71" s="7"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="3">
@@ -5338,28 +6114,28 @@
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="13">
+      <c r="A72" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="12">
         <v>4</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>100</v>
+      <c r="C72" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H72" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="H72" s="7"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="3">
@@ -5370,28 +6146,28 @@
       <c r="N72" s="4"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="13">
+      <c r="A73" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="12">
         <v>4</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>108</v>
+      <c r="C73" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H73" s="8"/>
+      <c r="H73" s="7"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="3">
@@ -5402,28 +6178,28 @@
       <c r="N73" s="4"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="13">
+      <c r="A74" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="12">
         <v>4</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>109</v>
+      <c r="C74" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H74" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="H74" s="7"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="3">
@@ -5434,28 +6210,28 @@
       <c r="N74" s="4"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B75" s="13">
+      <c r="A75" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="12">
         <v>4</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>114</v>
+      <c r="C75" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H75" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="H75" s="7"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="3">
@@ -5493,31 +6269,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="K1" s="3">
         <v>0</v>
@@ -5533,27 +6309,27 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>99</v>
+        <v>166</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="3">
@@ -5565,27 +6341,27 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="17">
+        <v>166</v>
+      </c>
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>99</v>
+      <c r="C3" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="3">
@@ -5596,28 +6372,28 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>99</v>
+      <c r="A4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="3">
@@ -5628,28 +6404,28 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="A5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>99</v>
+      <c r="C5" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3">
@@ -5660,28 +6436,28 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="A6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>99</v>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="3">
@@ -5692,28 +6468,28 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>99</v>
+      <c r="C7" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="3">
@@ -5724,28 +6500,28 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>99</v>
+      <c r="A8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3">
@@ -5756,28 +6532,28 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>99</v>
+      <c r="C9" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3">
@@ -5788,28 +6564,28 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>99</v>
+      <c r="C10" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3">
@@ -5820,28 +6596,28 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="A11" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="18">
         <v>4</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>99</v>
+      <c r="C11" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3">
@@ -5852,28 +6628,28 @@
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="A12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="18">
         <v>5</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>99</v>
+      <c r="C12" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3">
@@ -5884,28 +6660,28 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>99</v>
+      <c r="A13" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="3">
@@ -5916,28 +6692,28 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="17">
+      <c r="A14" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="16">
         <v>2</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>99</v>
+      <c r="C14" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="3">
@@ -5948,28 +6724,28 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="16">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>99</v>
+      <c r="C15" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3">
@@ -5980,28 +6756,28 @@
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="A16" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>99</v>
+      <c r="C16" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="3">
@@ -6012,28 +6788,28 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>99</v>
+      <c r="A17" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="3">
@@ -6044,28 +6820,28 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="A18" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="16">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>99</v>
+      <c r="C18" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="3">
@@ -6076,28 +6852,28 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="16">
         <v>3</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>99</v>
+      <c r="C19" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="3">
@@ -6105,28 +6881,28 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="A20" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="16">
         <v>4</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>99</v>
+      <c r="C20" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="3">
@@ -6134,28 +6910,28 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="17">
+      <c r="A21" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="16">
         <v>5</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>99</v>
+      <c r="C21" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="3">
@@ -6163,28 +6939,28 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="16">
         <v>6</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>99</v>
+      <c r="C22" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="3">
